--- a/Danh_sach_chi_luong (1).xlsx
+++ b/Danh_sach_chi_luong (1).xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26605"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://asimgroupvn.sharepoint.com/sites/TechandProduct-InnoFin/Shared Documents/SME/Tài liệu BA/Template xuất_nhập file excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linhnguyen4\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="11_F25DC773A252ABDACC10480AA9D85E225ADE5907" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDCAEC75-7BC1-4FF1-9596-B64F28EE0E4B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0FDB27-369F-4EBB-99CB-6A62FAD04298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Danh sách" sheetId="1" r:id="rId1"/>
-    <sheet name="Hướng dẫn" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Mã nhân viên (*)</t>
   </si>
@@ -51,65 +50,26 @@
     <t>Nội dung giao dịch (*)</t>
   </si>
   <si>
-    <t>00517</t>
-  </si>
-  <si>
     <t>VND</t>
   </si>
   <si>
     <t>Cong ty ABC thanh toan luong thang 01 2023</t>
   </si>
   <si>
-    <t>00518</t>
-  </si>
-  <si>
-    <t>Loại</t>
-  </si>
-  <si>
-    <t>Mô tả</t>
-  </si>
-  <si>
-    <t>Mã nhân viên</t>
-  </si>
-  <si>
-    <t>Là thông tin mã nhân viên được ghi nhận ở giá trị Mã tham chiếu khi thực hiện thêm mới Thông tin người thụ hưởng với loại:Nhân viên</t>
-  </si>
-  <si>
-    <t>Tiền tệ</t>
-  </si>
-  <si>
-    <t>VND. Chỉ hỗ trợ loại tiền VND</t>
-  </si>
-  <si>
-    <t>Số tiền</t>
-  </si>
-  <si>
-    <t>Số tiền chuyển. Chỉ được dùng ký tự số (0..9). Chỉ chấp nhận số tiền đã làm tròn đến đơn vị đồng và không bao gồm các dấu ngăn cách giữa hàng đơn vị, hàng chục, hàng trăm, v..v.. (dấu "." hoặc ",")</t>
-  </si>
-  <si>
-    <t>Nội dung giao dịch</t>
-  </si>
-  <si>
-    <t>Nội dung thanh toán. Không chứa ký tự đặc biệt. Không sử dụng tiếng Việt. Chỉ sử dụng các ký tự được phép dùng (các chữ cái và số). Tối đa 100 ký tự</t>
+    <t>L0001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -172,83 +132,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <border>
         <left style="thin">
@@ -543,144 +439,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.42578125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="18.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.44140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2">
         <v>10000000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>15000000</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:D1048576">
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>$A1&lt;&gt;""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055A85FB-FE5E-44F3-85A9-5A3DCD31CB3A}">
-  <dimension ref="B2:C6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.1"/>
-  <cols>
-    <col min="1" max="1" width="8.7109375" style="6"/>
-    <col min="2" max="2" width="16.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="56.85546875" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="8.7109375" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="42">
-      <c r="B3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="56.1">
-      <c r="B5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="42.75">
-      <c r="B6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B2:C2">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$A2&lt;&gt;""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$A2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -893,9 +703,28 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B3F61B4-4DF7-4B84-BACC-B498F2E63B35}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B3F61B4-4DF7-4B84-BACC-B498F2E63B35}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="484c1c8f-1c19-4916-a920-8ae3ff063171"/>
+    <ds:schemaRef ds:uri="2cc6eef3-dc6f-44f0-a815-0cba549f123d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84EF790E-8430-4001-BD42-7F9E8B7976C4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84EF790E-8430-4001-BD42-7F9E8B7976C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>